--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Angpt1</t>
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.110507</v>
+        <v>0.1786683333333333</v>
       </c>
       <c r="H2">
-        <v>0.331521</v>
+        <v>0.536005</v>
       </c>
       <c r="I2">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="J2">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>16.96603111845467</v>
+        <v>26.03210921501889</v>
       </c>
       <c r="R2">
-        <v>152.694280066092</v>
+        <v>234.28898293517</v>
       </c>
       <c r="S2">
-        <v>0.001461019350218656</v>
+        <v>0.001633851374820411</v>
       </c>
       <c r="T2">
-        <v>0.001461019350218656</v>
+        <v>0.001633851374820411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.110507</v>
+        <v>0.1786683333333333</v>
       </c>
       <c r="H3">
-        <v>0.331521</v>
+        <v>0.536005</v>
       </c>
       <c r="I3">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="J3">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>18.65354874258534</v>
+        <v>30.15916154261556</v>
       </c>
       <c r="R3">
-        <v>167.881938683268</v>
+        <v>271.43245388354</v>
       </c>
       <c r="S3">
-        <v>0.001606338894045738</v>
+        <v>0.001892877259496299</v>
       </c>
       <c r="T3">
-        <v>0.001606338894045738</v>
+        <v>0.001892877259496299</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.110507</v>
+        <v>0.1786683333333333</v>
       </c>
       <c r="H4">
-        <v>0.331521</v>
+        <v>0.536005</v>
       </c>
       <c r="I4">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="J4">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>10.339330305211</v>
+        <v>22.89208651070222</v>
       </c>
       <c r="R4">
-        <v>93.05397274689901</v>
+        <v>206.02877859632</v>
       </c>
       <c r="S4">
-        <v>0.0008903650794194313</v>
+        <v>0.001436774358507987</v>
       </c>
       <c r="T4">
-        <v>0.0008903650794194312</v>
+        <v>0.001436774358507987</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.110507</v>
+        <v>0.1786683333333333</v>
       </c>
       <c r="H5">
-        <v>0.331521</v>
+        <v>0.536005</v>
       </c>
       <c r="I5">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="J5">
-        <v>0.004605687348208628</v>
+        <v>0.005700931134181372</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>7.524457360596668</v>
+        <v>11.74942238313166</v>
       </c>
       <c r="R5">
-        <v>67.72011624537001</v>
+        <v>105.744801448185</v>
       </c>
       <c r="S5">
-        <v>0.0006479640245248027</v>
+        <v>0.0007374281413566761</v>
       </c>
       <c r="T5">
-        <v>0.0006479640245248027</v>
+        <v>0.0007374281413566761</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>66.443494</v>
       </c>
       <c r="I6">
-        <v>0.9230726249214253</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="J6">
-        <v>0.9230726249214253</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>3400.334780671076</v>
+        <v>3226.9555180184</v>
       </c>
       <c r="R6">
-        <v>30603.01302603969</v>
+        <v>29042.5996621656</v>
       </c>
       <c r="S6">
-        <v>0.2928177413501321</v>
+        <v>0.2025331741677255</v>
       </c>
       <c r="T6">
-        <v>0.2928177413501321</v>
+        <v>0.2025331741677255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>66.443494</v>
       </c>
       <c r="I7">
-        <v>0.9230726249214253</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="J7">
-        <v>0.9230726249214253</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>3738.547343778151</v>
@@ -883,10 +883,10 @@
         <v>33646.92609400336</v>
       </c>
       <c r="S7">
-        <v>0.3219427085116618</v>
+        <v>0.2346421746701594</v>
       </c>
       <c r="T7">
-        <v>0.3219427085116618</v>
+        <v>0.2346421746701594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>66.443494</v>
       </c>
       <c r="I8">
-        <v>0.9230726249214253</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="J8">
-        <v>0.9230726249214253</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>2072.210300699821</v>
+        <v>2837.716462945913</v>
       </c>
       <c r="R8">
-        <v>18649.89270629839</v>
+        <v>25539.44816651322</v>
       </c>
       <c r="S8">
-        <v>0.1784471174140236</v>
+        <v>0.1781033917013447</v>
       </c>
       <c r="T8">
-        <v>0.1784471174140235</v>
+        <v>0.1781033917013447</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>66.443494</v>
       </c>
       <c r="I9">
-        <v>0.9230726249214253</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="J9">
-        <v>0.9230726249214253</v>
+        <v>0.7066907652137446</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>1508.052996618798</v>
+        <v>1456.465285990008</v>
       </c>
       <c r="R9">
-        <v>13572.47696956918</v>
+        <v>13108.18757391008</v>
       </c>
       <c r="S9">
-        <v>0.1298650576456079</v>
+        <v>0.09141202467451509</v>
       </c>
       <c r="T9">
-        <v>0.1298650576456079</v>
+        <v>0.09141202467451509</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.735257333333333</v>
+        <v>8.967326666666667</v>
       </c>
       <c r="H10">
-        <v>5.205772000000001</v>
+        <v>26.90198</v>
       </c>
       <c r="I10">
-        <v>0.07232168773036617</v>
+        <v>0.2861285535640985</v>
       </c>
       <c r="J10">
-        <v>0.07232168773036618</v>
+        <v>0.2861285535640984</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>266.4123532071271</v>
+        <v>1306.546173002591</v>
       </c>
       <c r="R10">
-        <v>2397.711178864144</v>
+        <v>11758.91555702332</v>
       </c>
       <c r="S10">
-        <v>0.02294193618149822</v>
+        <v>0.08200266230425315</v>
       </c>
       <c r="T10">
-        <v>0.02294193618149822</v>
+        <v>0.08200266230425313</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.735257333333333</v>
+        <v>8.967326666666667</v>
       </c>
       <c r="H11">
-        <v>5.205772000000001</v>
+        <v>26.90198</v>
       </c>
       <c r="I11">
-        <v>0.07232168773036617</v>
+        <v>0.2861285535640985</v>
       </c>
       <c r="J11">
-        <v>0.07232168773036618</v>
+        <v>0.2861285535640984</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>292.9109219168196</v>
+        <v>1513.682075048205</v>
       </c>
       <c r="R11">
-        <v>2636.198297251377</v>
+        <v>13623.13867543384</v>
       </c>
       <c r="S11">
-        <v>0.02522384415205755</v>
+        <v>0.09500311783924449</v>
       </c>
       <c r="T11">
-        <v>0.02522384415205755</v>
+        <v>0.09500311783924448</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.735257333333333</v>
+        <v>8.967326666666667</v>
       </c>
       <c r="H12">
-        <v>5.205772000000001</v>
+        <v>26.90198</v>
       </c>
       <c r="I12">
-        <v>0.07232168773036617</v>
+        <v>0.2861285535640985</v>
       </c>
       <c r="J12">
-        <v>0.07232168773036618</v>
+        <v>0.2861285535640984</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>162.3553144495187</v>
+        <v>1148.949083439858</v>
       </c>
       <c r="R12">
-        <v>1461.197830045668</v>
+        <v>10340.54175095872</v>
       </c>
       <c r="S12">
-        <v>0.01398112819465268</v>
+        <v>0.07211140764935904</v>
       </c>
       <c r="T12">
-        <v>0.01398112819465268</v>
+        <v>0.07211140764935903</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8.967326666666667</v>
+      </c>
+      <c r="H13">
+        <v>26.90198</v>
+      </c>
+      <c r="I13">
+        <v>0.2861285535640985</v>
+      </c>
+      <c r="J13">
+        <v>0.2861285535640984</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>65.761079</v>
+      </c>
+      <c r="N13">
+        <v>197.283237</v>
+      </c>
+      <c r="O13">
+        <v>0.1293522275572212</v>
+      </c>
+      <c r="P13">
+        <v>0.1293522275572212</v>
+      </c>
+      <c r="Q13">
+        <v>589.7010773454733</v>
+      </c>
+      <c r="R13">
+        <v>5307.30969610926</v>
+      </c>
+      <c r="S13">
+        <v>0.03701136577124183</v>
+      </c>
+      <c r="T13">
+        <v>0.03701136577124182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.735257333333333</v>
-      </c>
-      <c r="H13">
-        <v>5.205772000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.07232168773036617</v>
-      </c>
-      <c r="J13">
-        <v>0.07232168773036618</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>68.09032333333334</v>
-      </c>
-      <c r="N13">
-        <v>204.27097</v>
-      </c>
-      <c r="O13">
-        <v>0.1406878008722904</v>
-      </c>
-      <c r="P13">
-        <v>0.1406878008722904</v>
-      </c>
-      <c r="Q13">
-        <v>118.1542328932045</v>
-      </c>
-      <c r="R13">
-        <v>1063.38809603884</v>
-      </c>
-      <c r="S13">
-        <v>0.01017477920215772</v>
-      </c>
-      <c r="T13">
-        <v>0.01017477920215772</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.04637566666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.139127</v>
+      </c>
+      <c r="I14">
+        <v>0.001479750087975396</v>
+      </c>
+      <c r="J14">
+        <v>0.001479750087975395</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>145.7007446666667</v>
+      </c>
+      <c r="N14">
+        <v>437.1022340000001</v>
+      </c>
+      <c r="O14">
+        <v>0.2865937750105843</v>
+      </c>
+      <c r="P14">
+        <v>0.2865937750105843</v>
+      </c>
+      <c r="Q14">
+        <v>6.756969167746446</v>
+      </c>
+      <c r="R14">
+        <v>60.81272250971801</v>
+      </c>
+      <c r="S14">
+        <v>0.0004240871637851128</v>
+      </c>
+      <c r="T14">
+        <v>0.0004240871637851127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.04637566666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.139127</v>
+      </c>
+      <c r="I15">
+        <v>0.001479750087975396</v>
+      </c>
+      <c r="J15">
+        <v>0.001479750087975395</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>168.7997026666667</v>
+      </c>
+      <c r="N15">
+        <v>506.3991080000001</v>
+      </c>
+      <c r="O15">
+        <v>0.3320294904365841</v>
+      </c>
+      <c r="P15">
+        <v>0.3320294904365841</v>
+      </c>
+      <c r="Q15">
+        <v>7.828198744301779</v>
+      </c>
+      <c r="R15">
+        <v>70.45378869871601</v>
+      </c>
+      <c r="S15">
+        <v>0.0004913206676839611</v>
+      </c>
+      <c r="T15">
+        <v>0.000491320667683961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.04637566666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.139127</v>
+      </c>
+      <c r="I16">
+        <v>0.001479750087975396</v>
+      </c>
+      <c r="J16">
+        <v>0.001479750087975395</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>128.1261546666667</v>
+      </c>
+      <c r="N16">
+        <v>384.378464</v>
+      </c>
+      <c r="O16">
+        <v>0.2520245069956105</v>
+      </c>
+      <c r="P16">
+        <v>0.2520245069956105</v>
+      </c>
+      <c r="Q16">
+        <v>5.941935840103112</v>
+      </c>
+      <c r="R16">
+        <v>53.477422560928</v>
+      </c>
+      <c r="S16">
+        <v>0.0003729332863987103</v>
+      </c>
+      <c r="T16">
+        <v>0.0003729332863987102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.04637566666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.139127</v>
+      </c>
+      <c r="I17">
+        <v>0.001479750087975396</v>
+      </c>
+      <c r="J17">
+        <v>0.001479750087975395</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>65.761079</v>
+      </c>
+      <c r="N17">
+        <v>197.283237</v>
+      </c>
+      <c r="O17">
+        <v>0.1293522275572212</v>
+      </c>
+      <c r="P17">
+        <v>0.1293522275572212</v>
+      </c>
+      <c r="Q17">
+        <v>3.049713879344333</v>
+      </c>
+      <c r="R17">
+        <v>27.447424914099</v>
+      </c>
+      <c r="S17">
+        <v>0.0001914089701076115</v>
+      </c>
+      <c r="T17">
+        <v>0.0001914089701076115</v>
       </c>
     </row>
   </sheetData>
